--- a/Unity/Assets/Config/Excel/ShopConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ShopConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="20175" windowHeight="8325" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="6" r:id="rId1"/>
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
